--- a/Test Data/SignupPageTestData.xlsx
+++ b/Test Data/SignupPageTestData.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
